--- a/Practicas/practica van y tir.xlsx
+++ b/Practicas/practica van y tir.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UNER2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Repositorio\2020_Economia_HernanRRD\Practicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BC1B64-1494-4C62-95BC-4B43D713D71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">1) Calcular el capital final al cabo de 2 años en un depósito a PF inicial de </t>
   </si>
@@ -132,14 +133,23 @@
   </si>
   <si>
     <t>7.3) ¿Qué proyecto debería elegir, pero en el caso de que los 3 fueran mutuamente excluyentes?</t>
+  </si>
+  <si>
+    <t>En este periodo de tiempo no se puede recuperar la inversión</t>
+  </si>
+  <si>
+    <t>15% de 8000</t>
+  </si>
+  <si>
+    <t>11% de 8000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]&quot;$&quot;\ \-#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00;[Red]&quot;$&quot;\ \-#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -267,9 +277,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -281,7 +291,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -562,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,52 +585,52 @@
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -634,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -648,7 +658,7 @@
         <v>-200000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -661,8 +671,11 @@
       <c r="D14" s="3">
         <v>60000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -676,7 +689,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -755,10 +768,16 @@
       <c r="A28" t="s">
         <v>19</v>
       </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">

--- a/Practicas/practica van y tir.xlsx
+++ b/Practicas/practica van y tir.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Repositorio\2020_Economia_HernanRRD\Practicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BC1B64-1494-4C62-95BC-4B43D713D71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5266B21-0A51-44C0-A7E9-AE4B9DFBB0CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t xml:space="preserve">1) Calcular el capital final al cabo de 2 años en un depósito a PF inicial de </t>
   </si>
@@ -135,23 +141,85 @@
     <t>7.3) ¿Qué proyecto debería elegir, pero en el caso de que los 3 fueran mutuamente excluyentes?</t>
   </si>
   <si>
-    <t>En este periodo de tiempo no se puede recuperar la inversión</t>
-  </si>
-  <si>
     <t>15% de 8000</t>
   </si>
   <si>
     <t>11% de 8000</t>
+  </si>
+  <si>
+    <t>Capital Inicial (Ci)</t>
+  </si>
+  <si>
+    <t>Tasa anual (i)</t>
+  </si>
+  <si>
+    <t>Periodo total (años)</t>
+  </si>
+  <si>
+    <t>Periodo de capitalización (años)</t>
+  </si>
+  <si>
+    <t>Número de periodos</t>
+  </si>
+  <si>
+    <t>Capital Final</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Acumulado A</t>
+  </si>
+  <si>
+    <t>Acumulado C</t>
+  </si>
+  <si>
+    <t>Acumulado B</t>
+  </si>
+  <si>
+    <t>Tasa</t>
+  </si>
+  <si>
+    <t>VAFCDII</t>
+  </si>
+  <si>
+    <t>Payback simple</t>
+  </si>
+  <si>
+    <t>En los periodos dados, no hay retorno de la inversión con el método de Payback descontado. Se puede ver que todos los VANs son negativos</t>
+  </si>
+  <si>
+    <t>No se puede saber, por que no se sabe los flujos de caja en cada periodo.</t>
+  </si>
+  <si>
+    <t>Se eligiría lo mismo, porque no hay posibilidad de elegir dos proyectos</t>
+  </si>
+  <si>
+    <t>Como no hay posibilidad de elegir 2 proyectos ya que el tope de inversión es muy chico, se elige el proyecto 1, que tiene el mayor VAN.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00;[Red]&quot;$&quot;\ \-#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,16 +240,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -208,19 +289,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -231,9 +299,363 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -242,7 +664,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -254,11 +676,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -267,9 +703,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -280,21 +713,152 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -573,16 +1137,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -605,337 +1177,744 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B7" s="17">
+        <v>15000</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18">
+        <f>D7/E7</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="19">
+        <f>B7*(1+C7)^F7</f>
+        <v>16854.000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="B8" s="20">
+        <v>15000</v>
+      </c>
+      <c r="C8" s="21">
+        <f>0.03</f>
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="21">
+        <v>2</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="21">
+        <f>D8/E8</f>
+        <v>4</v>
+      </c>
+      <c r="G8" s="22">
+        <f>B8*(1+C8)^F8</f>
+        <v>16882.632149999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="30">
+        <f>G16/(1+C16)^F16</f>
+        <v>6938.531953572241</v>
+      </c>
+      <c r="C16" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <f>D16/E16</f>
+        <v>3</v>
+      </c>
+      <c r="G16" s="31">
+        <f>8500</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="30">
+        <v>5000</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="1">
+        <f>E17*F17</f>
+        <v>2.9995573662534905</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <f>LOG10(G17/B17)/LOG(1+C17)</f>
+        <v>2.9995573662534905</v>
+      </c>
+      <c r="G17" s="31">
+        <v>5788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="32">
+        <v>6000</v>
+      </c>
+      <c r="C18" s="33">
+        <f>2*((G18/B18)^(1/F18)-1)</f>
+        <v>7.1116152683244227E-2</v>
+      </c>
+      <c r="D18" s="34">
+        <v>2</v>
+      </c>
+      <c r="E18" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="34">
+        <f>D18/E18</f>
+        <v>4</v>
+      </c>
+      <c r="G18" s="35">
+        <f>6900</f>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B22" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C22" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D22" s="59" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="E22" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="48">
         <v>0</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B23" s="45">
         <v>-200000</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C23" s="3">
         <v>-200000</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D23" s="39">
         <v>-200000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="E23" s="41">
+        <f>B23</f>
+        <v>-200000</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" ref="F23:G23" si="0">C23</f>
+        <v>-200000</v>
+      </c>
+      <c r="G23" s="42">
+        <f t="shared" si="0"/>
+        <v>-200000</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="48">
         <v>1</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B24" s="45">
         <v>-10000</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C24" s="3">
         <v>60000</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D24" s="39">
         <v>60000</v>
       </c>
-      <c r="G14" t="s">
+      <c r="E24" s="43">
+        <f>E23+B24</f>
+        <v>-210000</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" ref="F24:G28" si="1">F23+C24</f>
+        <v>-140000</v>
+      </c>
+      <c r="G24" s="36">
+        <f t="shared" si="1"/>
+        <v>-140000</v>
+      </c>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="48">
+        <v>2</v>
+      </c>
+      <c r="B25" s="52">
+        <v>100000</v>
+      </c>
+      <c r="C25" s="53">
+        <v>40000</v>
+      </c>
+      <c r="D25" s="39">
+        <v>60000</v>
+      </c>
+      <c r="E25" s="43">
+        <f>E24+B25</f>
+        <v>-110000</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>-100000</v>
+      </c>
+      <c r="G25" s="36">
+        <f t="shared" si="1"/>
+        <v>-80000</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="48">
+        <v>3</v>
+      </c>
+      <c r="B26" s="45">
+        <v>70000</v>
+      </c>
+      <c r="C26" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D26" s="39">
+        <v>20000</v>
+      </c>
+      <c r="E26" s="43">
+        <f t="shared" ref="E26:E28" si="2">E25+B26</f>
+        <v>-40000</v>
+      </c>
+      <c r="F26" s="1">
+        <f>F25+C26</f>
+        <v>-70000</v>
+      </c>
+      <c r="G26" s="36">
+        <f t="shared" si="1"/>
+        <v>-60000</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="48">
+        <v>4</v>
+      </c>
+      <c r="B27" s="51">
+        <v>50000</v>
+      </c>
+      <c r="C27" s="3">
+        <v>50000</v>
+      </c>
+      <c r="D27" s="39">
+        <v>30000</v>
+      </c>
+      <c r="E27" s="50">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>-20000</v>
+      </c>
+      <c r="G27" s="36">
+        <f t="shared" si="1"/>
+        <v>-30000</v>
+      </c>
+      <c r="H27" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="24">
+        <f>3+40000/50000</f>
+        <v>3.8</v>
+      </c>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="49">
+        <v>5</v>
+      </c>
+      <c r="B28" s="46">
+        <v>60000</v>
+      </c>
+      <c r="C28" s="37">
+        <v>20000</v>
+      </c>
+      <c r="D28" s="40">
+        <v>10000</v>
+      </c>
+      <c r="E28" s="44">
+        <f t="shared" si="2"/>
+        <v>70000</v>
+      </c>
+      <c r="F28" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="38">
+        <f t="shared" si="1"/>
+        <v>-20000</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" s="24">
+        <v>5</v>
+      </c>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="62">
+        <f>NPV($B$31,B24:B28)</f>
+        <v>157964.02452394477</v>
+      </c>
+      <c r="C29" s="62">
+        <f>NPV($B$31,C24:C28)</f>
+        <v>132365.38908016612</v>
+      </c>
+      <c r="D29" s="62">
+        <f>NPV($B$31,D24:D28)</f>
+        <v>125955.89928326105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="62">
+        <f>B23+B29</f>
+        <v>-42035.975476055231</v>
+      </c>
+      <c r="C30" s="62">
+        <f>C23+C29</f>
+        <v>-67634.610919833882</v>
+      </c>
+      <c r="D30" s="62">
+        <f>D23+D29</f>
+        <v>-74044.100716738947</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="61">
+        <v>0.18</v>
+      </c>
+      <c r="C31" s="61"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="78"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="72"/>
+      <c r="B53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="10"/>
+      <c r="H53" s="73"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="43">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1">
+        <v>-40</v>
+      </c>
+      <c r="C54" s="1">
+        <v>60</v>
+      </c>
+      <c r="D54" s="1">
+        <v>15</v>
+      </c>
+      <c r="E54" s="12">
+        <f>B54+F54</f>
+        <v>23.516068052930059</v>
+      </c>
+      <c r="F54" s="12">
+        <f>NPV($E$53,C54:D54)</f>
+        <v>63.516068052930059</v>
+      </c>
+      <c r="G54" s="11">
+        <f>IRR(B54:D54)</f>
+        <v>0.71824583655185248</v>
+      </c>
+      <c r="H54" s="74">
+        <f>F54/ABS(B54)</f>
+        <v>1.5879017013232515</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="43">
         <v>2</v>
       </c>
-      <c r="B15" s="3">
-        <v>100000</v>
-      </c>
-      <c r="C15" s="3">
-        <v>40000</v>
-      </c>
-      <c r="D15" s="3">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="B55" s="1">
+        <v>-20</v>
+      </c>
+      <c r="C55" s="1">
+        <v>-10</v>
+      </c>
+      <c r="D55" s="1">
+        <v>40</v>
+      </c>
+      <c r="E55" s="12">
+        <f t="shared" ref="E55:E56" si="3">B55+F55</f>
+        <v>1.5500945179584171</v>
+      </c>
+      <c r="F55" s="12">
+        <f t="shared" ref="F55:F56" si="4">NPV($E$53,C55:D55)</f>
+        <v>21.550094517958417</v>
+      </c>
+      <c r="G55" s="11">
+        <f t="shared" ref="G55:G56" si="5">IRR(B55:D55)</f>
+        <v>0.18614066163450693</v>
+      </c>
+      <c r="H55" s="74">
+        <f t="shared" ref="H55:H56" si="6">F55/ABS(B55)</f>
+        <v>1.0775047258979209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="44">
         <v>3</v>
       </c>
-      <c r="B16" s="3">
-        <v>70000</v>
-      </c>
-      <c r="C16" s="3">
-        <v>30000</v>
-      </c>
-      <c r="D16" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3">
-        <v>50000</v>
-      </c>
-      <c r="C17" s="3">
-        <v>50000</v>
-      </c>
-      <c r="D17" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3">
-        <v>60000</v>
-      </c>
-      <c r="C18" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D18" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="11" t="s">
+      <c r="B56" s="34">
+        <v>-35</v>
+      </c>
+      <c r="C56" s="34">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1">
-        <v>-40</v>
-      </c>
-      <c r="C39" s="1">
-        <v>60</v>
-      </c>
-      <c r="D39" s="1">
-        <v>15</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>2</v>
-      </c>
-      <c r="B40" s="1">
-        <v>-20</v>
-      </c>
-      <c r="C40" s="1">
-        <v>-10</v>
-      </c>
-      <c r="D40" s="1">
-        <v>40</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>3</v>
-      </c>
-      <c r="B41" s="1">
-        <v>-35</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="D56" s="34">
         <v>30</v>
       </c>
-      <c r="D41" s="1">
-        <v>30</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="E56" s="75">
+        <f t="shared" si="3"/>
+        <v>13.771266540642728</v>
+      </c>
+      <c r="F56" s="75">
+        <f t="shared" si="4"/>
+        <v>48.771266540642728</v>
+      </c>
+      <c r="G56" s="76">
+        <f>IRR(B56:D56)</f>
+        <v>0.44877548979178039</v>
+      </c>
+      <c r="H56" s="77">
+        <f t="shared" si="6"/>
+        <v>1.393464758304078</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="26"/>
+      <c r="H57" s="24"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A37:F37"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>